--- a/Assignment 4/Find-the-Position-of-Word.xlsx
+++ b/Assignment 4/Find-the-Position-of-Word.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vijay\Misc\Learning\Excel\Blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinay\iNeuron\iNeuron_Excel_Assignments\Assignment 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE666A6-5C4C-40C4-AF8E-0878CA691344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" xr2:uid="{A547D54C-FC71-499A-A7FB-20631F0F8484}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A547D54C-FC71-499A-A7FB-20631F0F8484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +68,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF2F4550"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -89,10 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,46 +423,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D9D1B6-F94F-4F62-B26A-FAA956D7A5C6}">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
+        <f>LEN(LEFT(A2,FIND("and",A2,1)-1))-LEN(SUBSTITUTE(LEFT(A2,FIND("and",A2,1)-1)," ",""))+1</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D7" si="0">LEN(LEFT(A3,FIND("and",A3,1)-1))-LEN(SUBSTITUTE(LEFT(A3,FIND("and",A3,1)-1)," ",""))+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
